--- a/data/vehicle_data.xlsx
+++ b/data/vehicle_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scdfs-fra.emea.tru.corpintra.net\dfs\nfzcae\bigdata\persons\wiessler\04_Studenten\00_data_science_challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c205cdc9051b7cb2/Dokumente/WiInf-Studium/python101_praxisprojekt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_CBFCA054F7F6246E2FB6A1521C12628BE1CAF0C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28800" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales_codes" sheetId="1" r:id="rId1"/>
@@ -31,8 +32,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="h_vehicle_hash_to_fin (1)" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="h_vehicle_hash_to_fin (1)" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\JWIESSL\Downloads\h_vehicle_hash_to_fin (1).csv" decimal="," thousands=".">
       <textFields count="5">
         <textField/>
@@ -43,7 +44,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="scm_main_table (1)" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="scm_main_table (1)" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="1250" sourceFile="C:\Users\JWIESSL\Downloads\scm_main_table (1).csv" decimal="," thousands=".">
       <textFields count="5">
         <textField/>
@@ -54,7 +55,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Sheet_1_(2)_data (1)" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Sheet_1_(2)_data (1)" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\JWIESSL\Downloads\Sheet_1_(2)_data (1).csv" decimal="," thousands=".">
       <textFields count="7">
         <textField/>
@@ -6760,7 +6761,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6796,7 +6797,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6812,15 +6813,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="scm_main_table (1)" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="scm_main_table (1)" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h_vehicle_hash_to_fin (1)" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="h_vehicle_hash_to_fin (1)" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Sheet_1_(2)_data (1)" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Sheet_1_(2)_data (1)" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7085,23 +7086,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -7285,7 +7286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -7387,7 +7388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -7404,7 +7405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -7489,7 +7490,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -7523,7 +7524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -7540,7 +7541,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -7642,7 +7643,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -7744,7 +7745,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -7761,7 +7762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
@@ -7965,7 +7966,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -8237,7 +8238,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0</v>
       </c>
@@ -8254,7 +8255,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
@@ -8271,7 +8272,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -8322,7 +8323,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
@@ -8356,7 +8357,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0</v>
       </c>
@@ -8475,7 +8476,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0</v>
       </c>
@@ -8492,7 +8493,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0</v>
       </c>
@@ -8628,7 +8629,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
@@ -8696,7 +8697,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0</v>
       </c>
@@ -8747,7 +8748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0</v>
       </c>
@@ -8798,7 +8799,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0</v>
       </c>
@@ -8832,7 +8833,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0</v>
       </c>
@@ -8849,7 +8850,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0</v>
       </c>
@@ -8866,7 +8867,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0</v>
       </c>
@@ -8968,7 +8969,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0</v>
       </c>
@@ -9104,7 +9105,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0</v>
       </c>
@@ -9121,7 +9122,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0</v>
       </c>
@@ -9189,7 +9190,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0</v>
       </c>
@@ -9206,7 +9207,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0</v>
       </c>
@@ -9342,7 +9343,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0</v>
       </c>
@@ -9427,7 +9428,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0</v>
       </c>
@@ -9546,7 +9547,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0</v>
       </c>
@@ -9597,7 +9598,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0</v>
       </c>
@@ -9648,7 +9649,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0</v>
       </c>
@@ -9682,7 +9683,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0</v>
       </c>
@@ -9716,7 +9717,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0</v>
       </c>
@@ -9767,7 +9768,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0</v>
       </c>
@@ -9835,7 +9836,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0</v>
       </c>
@@ -9886,7 +9887,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0</v>
       </c>
@@ -9903,7 +9904,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0</v>
       </c>
@@ -9988,7 +9989,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0</v>
       </c>
@@ -10022,7 +10023,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0</v>
       </c>
@@ -10056,7 +10057,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0</v>
       </c>
@@ -10107,7 +10108,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0</v>
       </c>
@@ -10124,7 +10125,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0</v>
       </c>
@@ -10158,7 +10159,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0</v>
       </c>
@@ -10345,7 +10346,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0</v>
       </c>
@@ -10430,7 +10431,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0</v>
       </c>
@@ -10464,7 +10465,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0</v>
       </c>
@@ -10515,7 +10516,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0</v>
       </c>
@@ -10549,7 +10550,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0</v>
       </c>
@@ -10600,7 +10601,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0</v>
       </c>
@@ -10651,7 +10652,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0</v>
       </c>
@@ -10685,7 +10686,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0</v>
       </c>
@@ -10719,7 +10720,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0</v>
       </c>
@@ -10736,7 +10737,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0</v>
       </c>
@@ -10770,7 +10771,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0</v>
       </c>
@@ -10787,7 +10788,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0</v>
       </c>
@@ -10821,7 +10822,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0</v>
       </c>
@@ -10838,7 +10839,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0</v>
       </c>
@@ -10855,7 +10856,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0</v>
       </c>
@@ -10872,7 +10873,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0</v>
       </c>
@@ -10923,7 +10924,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0</v>
       </c>
@@ -10957,7 +10958,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0</v>
       </c>
@@ -10991,7 +10992,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0</v>
       </c>
@@ -11008,7 +11009,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0</v>
       </c>
@@ -11025,7 +11026,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0</v>
       </c>
@@ -11076,7 +11077,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0</v>
       </c>
@@ -11093,7 +11094,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0</v>
       </c>
@@ -11110,7 +11111,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0</v>
       </c>
@@ -11144,7 +11145,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0</v>
       </c>
@@ -11178,7 +11179,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0</v>
       </c>
@@ -11229,7 +11230,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0</v>
       </c>
@@ -11263,7 +11264,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0</v>
       </c>
@@ -11297,7 +11298,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0</v>
       </c>
@@ -11331,7 +11332,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0</v>
       </c>
@@ -11365,7 +11366,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0</v>
       </c>
@@ -11399,7 +11400,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0</v>
       </c>
@@ -11467,7 +11468,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0</v>
       </c>
@@ -11501,7 +11502,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0</v>
       </c>
@@ -11518,7 +11519,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0</v>
       </c>
@@ -11535,7 +11536,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0</v>
       </c>
@@ -11552,7 +11553,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0</v>
       </c>
@@ -11569,7 +11570,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0</v>
       </c>
@@ -11586,7 +11587,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0</v>
       </c>
@@ -11603,7 +11604,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0</v>
       </c>
@@ -11637,7 +11638,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0</v>
       </c>
@@ -11654,7 +11655,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0</v>
       </c>
@@ -11671,7 +11672,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0</v>
       </c>
@@ -11688,7 +11689,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0</v>
       </c>
@@ -11739,7 +11740,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0</v>
       </c>
@@ -11756,7 +11757,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0</v>
       </c>
@@ -11841,7 +11842,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0</v>
       </c>
@@ -11858,7 +11859,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0</v>
       </c>
@@ -11875,7 +11876,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0</v>
       </c>
@@ -11892,7 +11893,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0</v>
       </c>
@@ -11909,7 +11910,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0</v>
       </c>
@@ -11926,7 +11927,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0</v>
       </c>
@@ -11943,7 +11944,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0</v>
       </c>
@@ -11977,7 +11978,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0</v>
       </c>
@@ -11994,7 +11995,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0</v>
       </c>
@@ -12011,7 +12012,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0</v>
       </c>
@@ -12028,7 +12029,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0</v>
       </c>
@@ -12045,7 +12046,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0</v>
       </c>
@@ -12079,7 +12080,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0</v>
       </c>
@@ -12130,7 +12131,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0</v>
       </c>
@@ -12147,7 +12148,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0</v>
       </c>
@@ -12164,7 +12165,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0</v>
       </c>
@@ -12181,7 +12182,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0</v>
       </c>
@@ -12198,7 +12199,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0</v>
       </c>
@@ -12215,7 +12216,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0</v>
       </c>
@@ -12249,7 +12250,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0</v>
       </c>
@@ -12266,7 +12267,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0</v>
       </c>
@@ -12283,7 +12284,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0</v>
       </c>
@@ -12300,7 +12301,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0</v>
       </c>
@@ -12317,7 +12318,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0</v>
       </c>
@@ -12351,7 +12352,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0</v>
       </c>
@@ -12385,7 +12386,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0</v>
       </c>
@@ -12402,7 +12403,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0</v>
       </c>
@@ -12470,7 +12471,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0</v>
       </c>
@@ -12487,7 +12488,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0</v>
       </c>
@@ -12504,7 +12505,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0</v>
       </c>
@@ -12521,7 +12522,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0</v>
       </c>
@@ -12538,7 +12539,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0</v>
       </c>
@@ -12572,7 +12573,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0</v>
       </c>
@@ -12589,7 +12590,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0</v>
       </c>
@@ -12606,7 +12607,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0</v>
       </c>
@@ -12640,7 +12641,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0</v>
       </c>
@@ -12657,7 +12658,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0</v>
       </c>
@@ -12674,7 +12675,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0</v>
       </c>
@@ -12708,7 +12709,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0</v>
       </c>
@@ -12725,7 +12726,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0</v>
       </c>
@@ -12759,7 +12760,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0</v>
       </c>
@@ -12776,7 +12777,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0</v>
       </c>
@@ -12793,7 +12794,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0</v>
       </c>
@@ -12810,7 +12811,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0</v>
       </c>
@@ -12827,7 +12828,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0</v>
       </c>
@@ -12844,7 +12845,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0</v>
       </c>
@@ -12861,7 +12862,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0</v>
       </c>
@@ -12878,7 +12879,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0</v>
       </c>
@@ -12895,7 +12896,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0</v>
       </c>
@@ -12912,7 +12913,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0</v>
       </c>
@@ -12946,7 +12947,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0</v>
       </c>
@@ -12963,7 +12964,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0</v>
       </c>
@@ -12980,7 +12981,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0</v>
       </c>
@@ -12997,7 +12998,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0</v>
       </c>
@@ -13014,7 +13015,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0</v>
       </c>
@@ -13031,7 +13032,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0</v>
       </c>
@@ -13048,7 +13049,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0</v>
       </c>
@@ -13065,7 +13066,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0</v>
       </c>
@@ -13099,7 +13100,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0</v>
       </c>
@@ -13150,7 +13151,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0</v>
       </c>
@@ -13167,7 +13168,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0</v>
       </c>
@@ -13184,7 +13185,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0</v>
       </c>
@@ -13201,7 +13202,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0</v>
       </c>
@@ -13235,7 +13236,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0</v>
       </c>
@@ -13252,7 +13253,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0</v>
       </c>
@@ -13269,7 +13270,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0</v>
       </c>
@@ -13286,7 +13287,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0</v>
       </c>
@@ -13320,7 +13321,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0</v>
       </c>
@@ -13371,7 +13372,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0</v>
       </c>
@@ -13388,7 +13389,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0</v>
       </c>
@@ -13422,7 +13423,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0</v>
       </c>
@@ -13439,7 +13440,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0</v>
       </c>
@@ -13456,7 +13457,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0</v>
       </c>
@@ -13473,7 +13474,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0</v>
       </c>
@@ -13490,7 +13491,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0</v>
       </c>
@@ -13507,7 +13508,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0</v>
       </c>
@@ -13541,7 +13542,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0</v>
       </c>
@@ -13575,7 +13576,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0</v>
       </c>
@@ -13609,7 +13610,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0</v>
       </c>
@@ -13626,7 +13627,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0</v>
       </c>
@@ -13660,7 +13661,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0</v>
       </c>
@@ -13694,7 +13695,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0</v>
       </c>
@@ -13711,7 +13712,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0</v>
       </c>
@@ -13779,7 +13780,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0</v>
       </c>
@@ -13813,7 +13814,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0</v>
       </c>
@@ -13830,7 +13831,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0</v>
       </c>
@@ -13864,7 +13865,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0</v>
       </c>
@@ -13881,7 +13882,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0</v>
       </c>
@@ -13898,7 +13899,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0</v>
       </c>
@@ -13932,7 +13933,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0</v>
       </c>
@@ -13949,7 +13950,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0</v>
       </c>
@@ -13966,7 +13967,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0</v>
       </c>
@@ -13983,7 +13984,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0</v>
       </c>
@@ -14000,7 +14001,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0</v>
       </c>
@@ -14034,7 +14035,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0</v>
       </c>
@@ -14068,7 +14069,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0</v>
       </c>
@@ -14085,7 +14086,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0</v>
       </c>
@@ -14102,7 +14103,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0</v>
       </c>
@@ -14136,7 +14137,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0</v>
       </c>
@@ -14170,7 +14171,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0</v>
       </c>
@@ -14187,7 +14188,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0</v>
       </c>
@@ -14204,7 +14205,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0</v>
       </c>
@@ -14221,7 +14222,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0</v>
       </c>
@@ -14238,7 +14239,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0</v>
       </c>
@@ -14255,7 +14256,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>0</v>
       </c>
@@ -14272,7 +14273,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>0</v>
       </c>
@@ -14289,7 +14290,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>0</v>
       </c>
@@ -14306,7 +14307,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>0</v>
       </c>
@@ -14323,7 +14324,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>0</v>
       </c>
@@ -14340,7 +14341,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>0</v>
       </c>
@@ -14357,7 +14358,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>0</v>
       </c>
@@ -14374,7 +14375,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>0</v>
       </c>
@@ -14391,7 +14392,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>0</v>
       </c>
@@ -14408,7 +14409,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>0</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>0</v>
       </c>
@@ -14442,7 +14443,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>0</v>
       </c>
@@ -14459,7 +14460,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>0</v>
       </c>
@@ -14476,7 +14477,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>0</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>0</v>
       </c>
@@ -14510,7 +14511,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>0</v>
       </c>
@@ -14527,7 +14528,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>0</v>
       </c>
@@ -14544,7 +14545,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>0</v>
       </c>
@@ -14561,7 +14562,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>0</v>
       </c>
@@ -14578,7 +14579,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>0</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>0</v>
       </c>
@@ -14612,7 +14613,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>0</v>
       </c>
@@ -14629,7 +14630,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>0</v>
       </c>
@@ -14646,7 +14647,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>0</v>
       </c>
@@ -14663,7 +14664,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>0</v>
       </c>
@@ -14680,7 +14681,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>0</v>
       </c>
@@ -14697,7 +14698,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>0</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>0</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>0</v>
       </c>
@@ -14748,7 +14749,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>0</v>
       </c>
@@ -14765,7 +14766,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>0</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>0</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>0</v>
       </c>
@@ -14816,7 +14817,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>0</v>
       </c>
@@ -14833,7 +14834,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>0</v>
       </c>
@@ -14850,7 +14851,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>0</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>0</v>
       </c>
@@ -14884,7 +14885,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>0</v>
       </c>
@@ -14901,7 +14902,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>0</v>
       </c>
@@ -14918,7 +14919,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>0</v>
       </c>
@@ -14935,7 +14936,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>0</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>0</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>0</v>
       </c>
@@ -14986,7 +14987,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>0</v>
       </c>
@@ -15003,7 +15004,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>0</v>
       </c>
@@ -15020,7 +15021,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>0</v>
       </c>
@@ -15037,7 +15038,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>0</v>
       </c>
@@ -15054,7 +15055,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>0</v>
       </c>
@@ -15071,7 +15072,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>0</v>
       </c>
@@ -15088,7 +15089,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>0</v>
       </c>
@@ -15105,7 +15106,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>0</v>
       </c>
@@ -15122,7 +15123,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>0</v>
       </c>
@@ -15139,7 +15140,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>0</v>
       </c>
@@ -15156,7 +15157,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>0</v>
       </c>
@@ -15173,7 +15174,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>0</v>
       </c>
@@ -15190,7 +15191,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>0</v>
       </c>
@@ -15207,7 +15208,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>0</v>
       </c>
@@ -15224,7 +15225,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>0</v>
       </c>
@@ -15241,7 +15242,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>0</v>
       </c>
@@ -15258,7 +15259,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>0</v>
       </c>
@@ -15275,7 +15276,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>0</v>
       </c>
@@ -15292,7 +15293,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>0</v>
       </c>
@@ -15309,7 +15310,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>0</v>
       </c>
@@ -15326,7 +15327,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>0</v>
       </c>
@@ -15343,7 +15344,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>0</v>
       </c>
@@ -15360,7 +15361,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>0</v>
       </c>
@@ -15377,7 +15378,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>0</v>
       </c>
@@ -15394,7 +15395,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>0</v>
       </c>
@@ -15411,7 +15412,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>0</v>
       </c>
@@ -15428,7 +15429,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>0</v>
       </c>
@@ -15445,7 +15446,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>0</v>
       </c>
@@ -15462,7 +15463,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>0</v>
       </c>
@@ -15479,7 +15480,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>0</v>
       </c>
@@ -15496,7 +15497,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>0</v>
       </c>
@@ -15513,7 +15514,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>0</v>
       </c>
@@ -15530,7 +15531,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>0</v>
       </c>
@@ -15547,7 +15548,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>0</v>
       </c>
@@ -15564,7 +15565,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>0</v>
       </c>
@@ -15581,7 +15582,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>0</v>
       </c>
@@ -15598,7 +15599,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>0</v>
       </c>
@@ -15621,23 +15622,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -15651,7 +15652,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15668,7 +15669,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -15685,7 +15686,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -15702,7 +15703,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -15719,7 +15720,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -15736,7 +15737,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -15753,7 +15754,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -15770,7 +15771,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -15787,7 +15788,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -15804,7 +15805,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -15821,7 +15822,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -15838,7 +15839,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -15855,7 +15856,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -15872,7 +15873,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -15889,7 +15890,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -15906,7 +15907,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -15923,7 +15924,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -15940,7 +15941,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -15957,7 +15958,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -15974,7 +15975,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -15991,7 +15992,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -16008,7 +16009,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -16025,7 +16026,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -16059,7 +16060,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -16076,7 +16077,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -16093,7 +16094,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -16110,7 +16111,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -16127,7 +16128,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -16144,7 +16145,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -16161,7 +16162,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -16178,7 +16179,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -16195,7 +16196,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -16212,7 +16213,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -16229,7 +16230,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -16246,7 +16247,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -16263,7 +16264,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -16280,7 +16281,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -16297,7 +16298,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -16314,7 +16315,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -16331,7 +16332,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -16348,7 +16349,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -16365,7 +16366,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -16382,7 +16383,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -16399,7 +16400,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -16416,7 +16417,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -16433,7 +16434,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -16450,7 +16451,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -16467,7 +16468,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -16484,7 +16485,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
@@ -16501,7 +16502,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -16518,7 +16519,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
@@ -16535,7 +16536,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -16552,7 +16553,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
@@ -16569,7 +16570,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
@@ -16586,7 +16587,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -16603,7 +16604,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0</v>
       </c>
@@ -16637,7 +16638,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
@@ -16671,7 +16672,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
@@ -16688,7 +16689,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -16705,7 +16706,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -16722,7 +16723,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -16739,7 +16740,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -16756,7 +16757,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -16773,7 +16774,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0</v>
       </c>
@@ -16790,7 +16791,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
@@ -16807,7 +16808,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
@@ -16824,7 +16825,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0</v>
       </c>
@@ -16841,7 +16842,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -16858,7 +16859,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
@@ -16875,7 +16876,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
@@ -16892,7 +16893,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0</v>
       </c>
@@ -16909,7 +16910,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0</v>
       </c>
@@ -16926,7 +16927,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
@@ -16943,7 +16944,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0</v>
       </c>
@@ -16960,7 +16961,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0</v>
       </c>
@@ -16977,7 +16978,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0</v>
       </c>
@@ -16994,7 +16995,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0</v>
       </c>
@@ -17011,7 +17012,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0</v>
       </c>
@@ -17028,7 +17029,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
@@ -17045,7 +17046,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0</v>
       </c>
@@ -17079,7 +17080,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0</v>
       </c>
@@ -17096,7 +17097,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0</v>
       </c>
@@ -17113,7 +17114,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0</v>
       </c>
@@ -17130,7 +17131,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0</v>
       </c>
@@ -17147,7 +17148,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0</v>
       </c>
@@ -17164,7 +17165,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0</v>
       </c>
@@ -17198,7 +17199,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
@@ -17215,7 +17216,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
@@ -17232,7 +17233,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
@@ -17249,7 +17250,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0</v>
       </c>
@@ -17266,7 +17267,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0</v>
       </c>
@@ -17283,7 +17284,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0</v>
       </c>
@@ -17300,7 +17301,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0</v>
       </c>
@@ -17317,7 +17318,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0</v>
       </c>
@@ -17334,7 +17335,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0</v>
       </c>
@@ -17351,7 +17352,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0</v>
       </c>
@@ -17368,7 +17369,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0</v>
       </c>
@@ -17385,7 +17386,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0</v>
       </c>
@@ -17402,7 +17403,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0</v>
       </c>
@@ -17419,7 +17420,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0</v>
       </c>
@@ -17436,7 +17437,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0</v>
       </c>
@@ -17453,7 +17454,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0</v>
       </c>
@@ -17470,7 +17471,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0</v>
       </c>
@@ -17487,7 +17488,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0</v>
       </c>
@@ -17504,7 +17505,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0</v>
       </c>
@@ -17521,7 +17522,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0</v>
       </c>
@@ -17538,7 +17539,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0</v>
       </c>
@@ -17555,7 +17556,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0</v>
       </c>
@@ -17572,7 +17573,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0</v>
       </c>
@@ -17589,7 +17590,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0</v>
       </c>
@@ -17606,7 +17607,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0</v>
       </c>
@@ -17623,7 +17624,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0</v>
       </c>
@@ -17640,7 +17641,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0</v>
       </c>
@@ -17657,7 +17658,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0</v>
       </c>
@@ -17674,7 +17675,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0</v>
       </c>
@@ -17691,7 +17692,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0</v>
       </c>
@@ -17708,7 +17709,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0</v>
       </c>
@@ -17725,7 +17726,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0</v>
       </c>
@@ -17759,7 +17760,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0</v>
       </c>
@@ -17776,7 +17777,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0</v>
       </c>
@@ -17793,7 +17794,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0</v>
       </c>
@@ -17810,7 +17811,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0</v>
       </c>
@@ -17827,7 +17828,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0</v>
       </c>
@@ -17844,7 +17845,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0</v>
       </c>
@@ -17861,7 +17862,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0</v>
       </c>
@@ -17878,7 +17879,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0</v>
       </c>
@@ -17895,7 +17896,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0</v>
       </c>
@@ -17912,7 +17913,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0</v>
       </c>
@@ -17946,7 +17947,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0</v>
       </c>
@@ -17980,7 +17981,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0</v>
       </c>
@@ -17997,7 +17998,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0</v>
       </c>
@@ -18014,7 +18015,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0</v>
       </c>
@@ -18031,7 +18032,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0</v>
       </c>
@@ -18048,7 +18049,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0</v>
       </c>
@@ -18065,7 +18066,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0</v>
       </c>
@@ -18082,7 +18083,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0</v>
       </c>
@@ -18099,7 +18100,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0</v>
       </c>
@@ -18116,7 +18117,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0</v>
       </c>
@@ -18133,7 +18134,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0</v>
       </c>
@@ -18150,7 +18151,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0</v>
       </c>
@@ -18167,7 +18168,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0</v>
       </c>
@@ -18184,7 +18185,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0</v>
       </c>
@@ -18201,7 +18202,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0</v>
       </c>
@@ -18218,7 +18219,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0</v>
       </c>
@@ -18235,7 +18236,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0</v>
       </c>
@@ -18269,7 +18270,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0</v>
       </c>
@@ -18286,7 +18287,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0</v>
       </c>
@@ -18303,7 +18304,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0</v>
       </c>
@@ -18320,7 +18321,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0</v>
       </c>
@@ -18337,7 +18338,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0</v>
       </c>
@@ -18354,7 +18355,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0</v>
       </c>
@@ -18371,7 +18372,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0</v>
       </c>
@@ -18388,7 +18389,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0</v>
       </c>
@@ -18405,7 +18406,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0</v>
       </c>
@@ -18422,7 +18423,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0</v>
       </c>
@@ -18439,7 +18440,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0</v>
       </c>
@@ -18456,7 +18457,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0</v>
       </c>
@@ -18473,7 +18474,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0</v>
       </c>
@@ -18490,7 +18491,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0</v>
       </c>
@@ -18507,7 +18508,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0</v>
       </c>
@@ -18524,7 +18525,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0</v>
       </c>
@@ -18541,7 +18542,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0</v>
       </c>
@@ -18558,7 +18559,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0</v>
       </c>
@@ -18575,7 +18576,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0</v>
       </c>
@@ -18592,7 +18593,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0</v>
       </c>
@@ -18609,7 +18610,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0</v>
       </c>
@@ -18626,7 +18627,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0</v>
       </c>
@@ -18643,7 +18644,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0</v>
       </c>
@@ -18660,7 +18661,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0</v>
       </c>
@@ -18677,7 +18678,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0</v>
       </c>
@@ -18694,7 +18695,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0</v>
       </c>
@@ -18711,7 +18712,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0</v>
       </c>
@@ -18728,7 +18729,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0</v>
       </c>
@@ -18745,7 +18746,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0</v>
       </c>
@@ -18762,7 +18763,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0</v>
       </c>
@@ -18779,7 +18780,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0</v>
       </c>
@@ -18796,7 +18797,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0</v>
       </c>
@@ -18813,7 +18814,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0</v>
       </c>
@@ -18830,7 +18831,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0</v>
       </c>
@@ -18847,7 +18848,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0</v>
       </c>
@@ -18864,7 +18865,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0</v>
       </c>
@@ -18881,7 +18882,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0</v>
       </c>
@@ -18898,7 +18899,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0</v>
       </c>
@@ -18915,7 +18916,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0</v>
       </c>
@@ -18932,7 +18933,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0</v>
       </c>
@@ -18949,7 +18950,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0</v>
       </c>
@@ -18966,7 +18967,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0</v>
       </c>
@@ -18983,7 +18984,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0</v>
       </c>
@@ -19000,7 +19001,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0</v>
       </c>
@@ -19017,7 +19018,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0</v>
       </c>
@@ -19034,7 +19035,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0</v>
       </c>
@@ -19051,7 +19052,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0</v>
       </c>
@@ -19068,7 +19069,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0</v>
       </c>
@@ -19085,7 +19086,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0</v>
       </c>
@@ -19102,7 +19103,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0</v>
       </c>
@@ -19119,7 +19120,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0</v>
       </c>
@@ -19153,7 +19154,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0</v>
       </c>
@@ -19170,7 +19171,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0</v>
       </c>
@@ -19187,7 +19188,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0</v>
       </c>
@@ -19204,7 +19205,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0</v>
       </c>
@@ -19221,7 +19222,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0</v>
       </c>
@@ -19238,7 +19239,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0</v>
       </c>
@@ -19255,7 +19256,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0</v>
       </c>
@@ -19272,7 +19273,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0</v>
       </c>
@@ -19289,7 +19290,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0</v>
       </c>
@@ -19306,7 +19307,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0</v>
       </c>
@@ -19323,7 +19324,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0</v>
       </c>
@@ -19340,7 +19341,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0</v>
       </c>
@@ -19357,7 +19358,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0</v>
       </c>
@@ -19374,7 +19375,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0</v>
       </c>
@@ -19391,7 +19392,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0</v>
       </c>
@@ -19408,7 +19409,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0</v>
       </c>
@@ -19425,7 +19426,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0</v>
       </c>
@@ -19442,7 +19443,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0</v>
       </c>
@@ -19459,7 +19460,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0</v>
       </c>
@@ -19476,7 +19477,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0</v>
       </c>
@@ -19493,7 +19494,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0</v>
       </c>
@@ -19510,7 +19511,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0</v>
       </c>
@@ -19527,7 +19528,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0</v>
       </c>
@@ -19544,7 +19545,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0</v>
       </c>
@@ -19561,7 +19562,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0</v>
       </c>
@@ -19578,7 +19579,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0</v>
       </c>
@@ -19595,7 +19596,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0</v>
       </c>
@@ -19612,7 +19613,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0</v>
       </c>
@@ -19629,7 +19630,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0</v>
       </c>
@@ -19646,7 +19647,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0</v>
       </c>
@@ -19663,7 +19664,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0</v>
       </c>
@@ -19680,7 +19681,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0</v>
       </c>
@@ -19697,7 +19698,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0</v>
       </c>
@@ -19714,7 +19715,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0</v>
       </c>
@@ -19731,7 +19732,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0</v>
       </c>
@@ -19748,7 +19749,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0</v>
       </c>
@@ -19765,7 +19766,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0</v>
       </c>
@@ -19782,7 +19783,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0</v>
       </c>
@@ -19799,7 +19800,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0</v>
       </c>
@@ -19816,7 +19817,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0</v>
       </c>
@@ -19833,7 +19834,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0</v>
       </c>
@@ -19850,7 +19851,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0</v>
       </c>
@@ -19867,7 +19868,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0</v>
       </c>
@@ -19884,7 +19885,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0</v>
       </c>
@@ -19901,7 +19902,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0</v>
       </c>
@@ -19918,7 +19919,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0</v>
       </c>
@@ -19935,7 +19936,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0</v>
       </c>
@@ -19952,7 +19953,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0</v>
       </c>
@@ -19969,7 +19970,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0</v>
       </c>
@@ -19986,7 +19987,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0</v>
       </c>
@@ -20003,7 +20004,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0</v>
       </c>
@@ -20020,7 +20021,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0</v>
       </c>
@@ -20037,7 +20038,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0</v>
       </c>
@@ -20054,7 +20055,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0</v>
       </c>
@@ -20071,7 +20072,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0</v>
       </c>
@@ -20088,7 +20089,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0</v>
       </c>
@@ -20105,7 +20106,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0</v>
       </c>
@@ -20122,7 +20123,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0</v>
       </c>
@@ -20139,7 +20140,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0</v>
       </c>
@@ -20156,7 +20157,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0</v>
       </c>
@@ -20173,7 +20174,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0</v>
       </c>
@@ -20190,7 +20191,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0</v>
       </c>
@@ -20207,7 +20208,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0</v>
       </c>
@@ -20224,7 +20225,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0</v>
       </c>
@@ -20241,7 +20242,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0</v>
       </c>
@@ -20258,7 +20259,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0</v>
       </c>
@@ -20275,7 +20276,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0</v>
       </c>
@@ -20292,7 +20293,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0</v>
       </c>
@@ -20309,7 +20310,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0</v>
       </c>
@@ -20326,7 +20327,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0</v>
       </c>
@@ -20343,7 +20344,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0</v>
       </c>
@@ -20360,7 +20361,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0</v>
       </c>
@@ -20377,7 +20378,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0</v>
       </c>
@@ -20394,7 +20395,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0</v>
       </c>
@@ -20411,7 +20412,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0</v>
       </c>
@@ -20428,7 +20429,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0</v>
       </c>
@@ -20445,7 +20446,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0</v>
       </c>
@@ -20462,7 +20463,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0</v>
       </c>
@@ -20479,7 +20480,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0</v>
       </c>
@@ -20496,7 +20497,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0</v>
       </c>
@@ -20513,7 +20514,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0</v>
       </c>
@@ -20530,7 +20531,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0</v>
       </c>
@@ -20547,7 +20548,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0</v>
       </c>
@@ -20564,7 +20565,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0</v>
       </c>
@@ -20581,7 +20582,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0</v>
       </c>
@@ -20598,7 +20599,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0</v>
       </c>
@@ -20615,7 +20616,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0</v>
       </c>
@@ -20632,7 +20633,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0</v>
       </c>
@@ -20649,7 +20650,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0</v>
       </c>
@@ -20666,7 +20667,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0</v>
       </c>
@@ -20683,7 +20684,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0</v>
       </c>
@@ -20700,7 +20701,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0</v>
       </c>
@@ -20717,7 +20718,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0</v>
       </c>
@@ -20734,7 +20735,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0</v>
       </c>
@@ -20751,7 +20752,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0</v>
       </c>
@@ -20768,7 +20769,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0</v>
       </c>
@@ -20785,7 +20786,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0</v>
       </c>
@@ -20802,7 +20803,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0</v>
       </c>
@@ -20819,7 +20820,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0</v>
       </c>
@@ -20836,7 +20837,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0</v>
       </c>
@@ -20853,7 +20854,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0</v>
       </c>
@@ -20870,7 +20871,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0</v>
       </c>
@@ -20887,7 +20888,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0</v>
       </c>
@@ -20904,7 +20905,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0</v>
       </c>
@@ -20921,7 +20922,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0</v>
       </c>
@@ -20938,7 +20939,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0</v>
       </c>
@@ -20955,7 +20956,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0</v>
       </c>
@@ -20972,7 +20973,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0</v>
       </c>
@@ -20989,7 +20990,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0</v>
       </c>
@@ -21006,7 +21007,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0</v>
       </c>
@@ -21023,7 +21024,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0</v>
       </c>
@@ -21040,7 +21041,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0</v>
       </c>
@@ -21057,7 +21058,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0</v>
       </c>
@@ -21074,7 +21075,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0</v>
       </c>
@@ -21091,7 +21092,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0</v>
       </c>
@@ -21108,7 +21109,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0</v>
       </c>
@@ -21125,7 +21126,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0</v>
       </c>
@@ -21142,7 +21143,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0</v>
       </c>
@@ -21159,7 +21160,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0</v>
       </c>
@@ -21176,7 +21177,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0</v>
       </c>
@@ -21193,7 +21194,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0</v>
       </c>
@@ -21210,7 +21211,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0</v>
       </c>
@@ -21227,7 +21228,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0</v>
       </c>
@@ -21244,7 +21245,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0</v>
       </c>
@@ -21261,7 +21262,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0</v>
       </c>
@@ -21278,7 +21279,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0</v>
       </c>
@@ -21295,7 +21296,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0</v>
       </c>
@@ -21312,7 +21313,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0</v>
       </c>
@@ -21329,7 +21330,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0</v>
       </c>
@@ -21346,7 +21347,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0</v>
       </c>
@@ -21363,7 +21364,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0</v>
       </c>
@@ -21380,7 +21381,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0</v>
       </c>
@@ -21397,7 +21398,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0</v>
       </c>
@@ -21414,7 +21415,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0</v>
       </c>
@@ -21431,7 +21432,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0</v>
       </c>
@@ -21448,7 +21449,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0</v>
       </c>
@@ -21465,7 +21466,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0</v>
       </c>
@@ -21482,7 +21483,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0</v>
       </c>
@@ -21499,7 +21500,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0</v>
       </c>
@@ -21516,7 +21517,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0</v>
       </c>
@@ -21533,7 +21534,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0</v>
       </c>
@@ -21550,7 +21551,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0</v>
       </c>
@@ -21567,7 +21568,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0</v>
       </c>
@@ -21584,7 +21585,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0</v>
       </c>
@@ -21601,7 +21602,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0</v>
       </c>
@@ -21618,7 +21619,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0</v>
       </c>
@@ -21635,7 +21636,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0</v>
       </c>
@@ -21652,7 +21653,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0</v>
       </c>
@@ -21669,7 +21670,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0</v>
       </c>
@@ -21686,7 +21687,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0</v>
       </c>
@@ -21703,7 +21704,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0</v>
       </c>
@@ -21720,7 +21721,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0</v>
       </c>
@@ -21737,7 +21738,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0</v>
       </c>
@@ -21754,7 +21755,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0</v>
       </c>
@@ -21771,7 +21772,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0</v>
       </c>
@@ -21788,7 +21789,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0</v>
       </c>
@@ -21805,7 +21806,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0</v>
       </c>
@@ -21822,7 +21823,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0</v>
       </c>
@@ -21839,7 +21840,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0</v>
       </c>
@@ -21856,7 +21857,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0</v>
       </c>
@@ -21873,7 +21874,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0</v>
       </c>
@@ -21890,7 +21891,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0</v>
       </c>
@@ -21907,7 +21908,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0</v>
       </c>
@@ -21924,7 +21925,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0</v>
       </c>
@@ -21941,7 +21942,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0</v>
       </c>
@@ -21958,7 +21959,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0</v>
       </c>
@@ -21975,7 +21976,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0</v>
       </c>
@@ -21992,7 +21993,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0</v>
       </c>
@@ -22009,7 +22010,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0</v>
       </c>
@@ -22026,7 +22027,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0</v>
       </c>
@@ -22043,7 +22044,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0</v>
       </c>
@@ -22060,7 +22061,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0</v>
       </c>
@@ -22077,7 +22078,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0</v>
       </c>
@@ -22094,7 +22095,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0</v>
       </c>
@@ -22111,7 +22112,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0</v>
       </c>
@@ -22128,7 +22129,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0</v>
       </c>
@@ -22145,7 +22146,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0</v>
       </c>
@@ -22162,7 +22163,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0</v>
       </c>
@@ -22179,7 +22180,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0</v>
       </c>
@@ -22196,7 +22197,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0</v>
       </c>
@@ -22213,7 +22214,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0</v>
       </c>
@@ -22230,7 +22231,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0</v>
       </c>
@@ -22247,7 +22248,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0</v>
       </c>
@@ -22264,7 +22265,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0</v>
       </c>
@@ -22281,7 +22282,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0</v>
       </c>
@@ -22298,7 +22299,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0</v>
       </c>
@@ -22315,7 +22316,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0</v>
       </c>
@@ -22332,7 +22333,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0</v>
       </c>
@@ -22349,7 +22350,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0</v>
       </c>
@@ -22366,7 +22367,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0</v>
       </c>
@@ -22383,7 +22384,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0</v>
       </c>
@@ -22400,7 +22401,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0</v>
       </c>
@@ -22417,7 +22418,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0</v>
       </c>
@@ -22434,7 +22435,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0</v>
       </c>
@@ -22451,7 +22452,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0</v>
       </c>
@@ -22468,7 +22469,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0</v>
       </c>
@@ -22485,7 +22486,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0</v>
       </c>
@@ -22502,7 +22503,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0</v>
       </c>
@@ -22519,7 +22520,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0</v>
       </c>
@@ -22536,7 +22537,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0</v>
       </c>
@@ -22553,7 +22554,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0</v>
       </c>
@@ -22570,7 +22571,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0</v>
       </c>
@@ -22587,7 +22588,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0</v>
       </c>
@@ -22604,7 +22605,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0</v>
       </c>
@@ -22621,7 +22622,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0</v>
       </c>
@@ -22638,7 +22639,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0</v>
       </c>
@@ -22655,7 +22656,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0</v>
       </c>
@@ -22672,7 +22673,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0</v>
       </c>
@@ -22689,7 +22690,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0</v>
       </c>
@@ -22706,7 +22707,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0</v>
       </c>
@@ -22723,7 +22724,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0</v>
       </c>
@@ -22740,7 +22741,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0</v>
       </c>
@@ -22757,7 +22758,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0</v>
       </c>
@@ -22774,7 +22775,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0</v>
       </c>
@@ -22791,7 +22792,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>0</v>
       </c>
@@ -22808,7 +22809,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>0</v>
       </c>
@@ -22825,7 +22826,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>0</v>
       </c>
@@ -22842,7 +22843,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>0</v>
       </c>
@@ -22859,7 +22860,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>0</v>
       </c>
@@ -22876,7 +22877,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>0</v>
       </c>
@@ -22893,7 +22894,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>0</v>
       </c>
@@ -22910,7 +22911,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>0</v>
       </c>
@@ -22927,7 +22928,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>0</v>
       </c>
@@ -22944,7 +22945,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>0</v>
       </c>
@@ -22961,7 +22962,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>0</v>
       </c>
@@ -22978,7 +22979,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>0</v>
       </c>
@@ -22995,7 +22996,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>0</v>
       </c>
@@ -23012,7 +23013,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>0</v>
       </c>
@@ -23029,7 +23030,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>0</v>
       </c>
@@ -23046,7 +23047,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>0</v>
       </c>
@@ -23063,7 +23064,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>0</v>
       </c>
@@ -23080,7 +23081,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>0</v>
       </c>
@@ -23097,7 +23098,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>0</v>
       </c>
@@ -23114,7 +23115,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>0</v>
       </c>
@@ -23131,7 +23132,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>0</v>
       </c>
@@ -23148,7 +23149,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>0</v>
       </c>
@@ -23165,7 +23166,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>0</v>
       </c>
@@ -23182,7 +23183,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>0</v>
       </c>
@@ -23199,7 +23200,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>0</v>
       </c>
@@ -23216,7 +23217,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>0</v>
       </c>
@@ -23233,7 +23234,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>0</v>
       </c>
@@ -23250,7 +23251,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>0</v>
       </c>
@@ -23267,7 +23268,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>0</v>
       </c>
@@ -23284,7 +23285,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>0</v>
       </c>
@@ -23301,7 +23302,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>0</v>
       </c>
@@ -23318,7 +23319,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>0</v>
       </c>
@@ -23335,7 +23336,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>0</v>
       </c>
@@ -23352,7 +23353,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>0</v>
       </c>
@@ -23369,7 +23370,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>0</v>
       </c>
@@ -23386,7 +23387,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>0</v>
       </c>
@@ -23403,7 +23404,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>0</v>
       </c>
@@ -23420,7 +23421,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>0</v>
       </c>
@@ -23437,7 +23438,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>0</v>
       </c>
@@ -23454,7 +23455,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>0</v>
       </c>
@@ -23471,7 +23472,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>0</v>
       </c>
@@ -23488,7 +23489,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>0</v>
       </c>
@@ -23505,7 +23506,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>0</v>
       </c>
@@ -23522,7 +23523,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>0</v>
       </c>
@@ -23539,7 +23540,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>0</v>
       </c>
@@ -23556,7 +23557,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>0</v>
       </c>
@@ -23573,7 +23574,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>0</v>
       </c>
@@ -23590,7 +23591,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>0</v>
       </c>
@@ -23607,7 +23608,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>0</v>
       </c>
@@ -23624,7 +23625,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>0</v>
       </c>
@@ -23641,7 +23642,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>0</v>
       </c>
@@ -23658,7 +23659,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>0</v>
       </c>
@@ -23675,7 +23676,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>0</v>
       </c>
@@ -23692,7 +23693,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>0</v>
       </c>
@@ -23709,7 +23710,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>0</v>
       </c>
@@ -23726,7 +23727,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>0</v>
       </c>
@@ -23743,7 +23744,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>0</v>
       </c>
@@ -23760,7 +23761,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>0</v>
       </c>
@@ -23777,7 +23778,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>0</v>
       </c>
@@ -23794,7 +23795,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>0</v>
       </c>
@@ -23811,7 +23812,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>0</v>
       </c>
@@ -23828,7 +23829,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>0</v>
       </c>
@@ -23845,7 +23846,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>0</v>
       </c>
@@ -23862,7 +23863,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>0</v>
       </c>
@@ -23879,7 +23880,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>0</v>
       </c>
@@ -23896,7 +23897,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>0</v>
       </c>
@@ -23913,7 +23914,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>0</v>
       </c>
@@ -23930,7 +23931,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>0</v>
       </c>
@@ -23947,7 +23948,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>0</v>
       </c>
@@ -23964,7 +23965,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>0</v>
       </c>
@@ -23981,7 +23982,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>0</v>
       </c>
@@ -23998,7 +23999,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>0</v>
       </c>
@@ -24015,7 +24016,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>0</v>
       </c>
@@ -24032,7 +24033,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>0</v>
       </c>
@@ -24049,7 +24050,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>0</v>
       </c>
@@ -24066,7 +24067,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>0</v>
       </c>
@@ -24083,7 +24084,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>0</v>
       </c>
@@ -24100,7 +24101,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>0</v>
       </c>
@@ -24117,7 +24118,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>0</v>
       </c>
@@ -24134,7 +24135,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>0</v>
       </c>
@@ -24157,25 +24158,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2191</v>
       </c>
@@ -24198,7 +24199,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>131</v>
       </c>
@@ -24221,7 +24222,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>131</v>
       </c>
@@ -24244,7 +24245,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>131</v>
       </c>
@@ -24267,7 +24268,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>131</v>
       </c>
@@ -24290,7 +24291,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>131</v>
       </c>
@@ -24313,7 +24314,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>131</v>
       </c>
@@ -24336,7 +24337,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>131</v>
       </c>
@@ -24359,7 +24360,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>131</v>
       </c>
@@ -24382,7 +24383,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>131</v>
       </c>

--- a/data/vehicle_data.xlsx
+++ b/data/vehicle_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c205cdc9051b7cb2/Dokumente/WiInf-Studium/python101_praxisprojekt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_CBFCA054F7F6246E2FB6A1521C12628BE1CAF0C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_CBFCA054F7F6246E2FB6A1521C12628BE1CAF0C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1FDA3B4-D7BD-C647-AF81-F2518A796A35}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="28800" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales_codes" sheetId="1" r:id="rId1"/>
@@ -7089,8 +7089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24162,7 +24162,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24408,5 +24408,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>